--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_008.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_008.xlsx
@@ -31,322 +31,328 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295005AA1.07) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(295003AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
-  </si>
-  <si>
-    <t>(295006AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor pressure response</t>
-  </si>
-  <si>
-    <t>(700000AK2.02) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Breakers, relays</t>
-  </si>
-  <si>
-    <t>(295016AA2.06) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Cooldown rate</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295024EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) HPCS</t>
-  </si>
-  <si>
-    <t>(295023AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Inadvertent criticality</t>
+    <t>(295016AA2.02) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295037EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(295038EK2.13) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(295018AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Cross-connecting with backup systems</t>
   </si>
   <si>
-    <t>(295021AK2.08) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Alternate decay heat removal systems</t>
-  </si>
-  <si>
-    <t>(295038EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Total number of curies released or release rate/duration</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295025EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Isolation condenser (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(295027EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Equipment environmental qualifications</t>
-  </si>
-  <si>
-    <t>(295031EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Automatic depressurization system actuation</t>
-  </si>
-  <si>
-    <t>(295026EK2.01) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295037EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(600000AA1.09) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Plant fire zone panel (including detector location) </t>
-  </si>
-  <si>
-    <t>(295004AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Redundant DC power supplies</t>
-  </si>
-  <si>
-    <t>(295034EK2.04) Knowledge of the relationship between the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION and the following systems or components: (CFR: 41.7 / 45.8) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(295036EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Operability of components within the affected area</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295014AA1.11) Ability to operate and/or monitor the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.7 / 45.6) Feedwater system</t>
-  </si>
-  <si>
-    <t>(295022AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.8 to 41.10) Reactor pressure vs. rod insertion capability</t>
-  </si>
-  <si>
-    <t>(295033EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.5 / 45.6) Operating ventilation systems</t>
-  </si>
-  <si>
-    <t>(217000K3.07) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Secondary containment parameters</t>
-  </si>
-  <si>
-    <t>(259002K2.01) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Reactor water level control system</t>
-  </si>
-  <si>
-    <t>(209002K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Leak detection</t>
-  </si>
-  <si>
-    <t>(211000K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Core spray system</t>
-  </si>
-  <si>
-    <t>(300000A3.04) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Automatic isolation</t>
-  </si>
-  <si>
-    <t>(215004A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) SCRAM, rod block, and period alarm and trip setpoints</t>
-  </si>
-  <si>
-    <t>(262002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Static switch/inverter operation</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(400000A2.13) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
-  </si>
-  <si>
-    <t>(212000K4.07) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Manual SCRAM</t>
-  </si>
-  <si>
-    <t>(209001A4.15) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Initiation reset</t>
-  </si>
-  <si>
-    <t>(215003K3.05) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) APRM system</t>
-  </si>
-  <si>
-    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
-  </si>
-  <si>
-    <t>(262001K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main turbine generator and auxiliaries system</t>
-  </si>
-  <si>
-    <t>(261000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(510000A3.03) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Traveling screen operation</t>
-  </si>
-  <si>
-    <t>(223002A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Secondary containment pressure</t>
-  </si>
-  <si>
-    <t>(203000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) Core cooling methods</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (291004K1.05) PUMPS (CFR: 41.3) (CENTRIFUGAL) Discuss relationships among head, flow, and power, as related to pump speed</t>
-  </si>
-  <si>
-    <t>(263000A2.02) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of ventilation during charging</t>
-  </si>
-  <si>
-    <t>(264000K4.08) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic startup</t>
-  </si>
-  <si>
-    <t>(205000A4.01) Ability to manually operate and/or monitor the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) in the control room: (CFR: 41.7 / 45.5 to 45.8) SDC/RHR pumps</t>
-  </si>
-  <si>
-    <t>(217000K3.06) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Condensate storage tank level</t>
-  </si>
-  <si>
-    <t>(259002K2.03) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater controllers</t>
-  </si>
-  <si>
-    <t>(209002K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(211000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Plant air systems</t>
-  </si>
-  <si>
-    <t>(223001K4.02) Knowledge of (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES design features and/or interlocks that provide for the following: (CFR: 41.7) Contains fission products after a LOCA</t>
-  </si>
-  <si>
-    <t>(233000A4.09) Ability to manually operate and/or monitor the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP in the control room: (CFR: 41.7 / 45.5 to 45.8) Fuel pool cooling system pumps</t>
-  </si>
-  <si>
-    <t>(230000K3.01) Knowledge of the effect that a loss or malfunction of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(201001K2.03) (SF1 CRDH) CRD HYDRAULIC SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Backup SCRAM valve solenoids</t>
-  </si>
-  <si>
-    <t>(256000K1.21) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 CDS) CONDENSATE SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Steam seal evaporator</t>
-  </si>
-  <si>
-    <t>(204000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM : (CFR: 41.7 / 45.7) PCIS/NSSSS</t>
-  </si>
-  <si>
-    <t>(290002K3.11) Knowledge of the effect that a loss or malfunction of the (SF4 RVI) REACTOR VESSEL INTERNALS will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor feedwater system</t>
-  </si>
-  <si>
-    <t>(239001A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.5 / 45.5) Main steam pressure</t>
-  </si>
-  <si>
-    <t>(202002K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.5 / 45.3) Feedwater flow</t>
-  </si>
-  <si>
-    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(201003A2.10) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Excessive SCRAM time</t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
+  </si>
+  <si>
+    <t>(700000AA2.10) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator overheating and the required actions</t>
+  </si>
+  <si>
+    <t>(295027EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) RHR/LPCI containment spray system mode</t>
+  </si>
+  <si>
+    <t>(295004AK2.01) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) Battery charger</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Main generator trip</t>
+  </si>
+  <si>
+    <t>(295021AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295030EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA1.03) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Air compressors </t>
+  </si>
+  <si>
+    <t>(295025EK2.01) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
+  </si>
+  <si>
+    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295023AA2.04) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Occurrence of fuel handling accident</t>
+  </si>
+  <si>
+    <t>(295001AA1.06) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Power range monitoring system</t>
+  </si>
+  <si>
+    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295011AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Increased containment cooling</t>
+  </si>
+  <si>
+    <t>(500000EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.8 to 41.10) Hydrogen generation</t>
+  </si>
+  <si>
+    <t>(295008AA2.03) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water cleanup blowdown flow</t>
+  </si>
+  <si>
+    <t>(295009AA1.02) Ability to operate and/or monitor the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.7 / 45.6) Reactor water level control</t>
+  </si>
+  <si>
+    <t>(295033EK2.10) Knowledge of the relationship between the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS and the following systems or components: (CFR: 41.7 / 45.8) Systems required to depressurize the reactor</t>
+  </si>
+  <si>
+    <t>(300000A4.02) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Instrument air compressors</t>
+  </si>
+  <si>
+    <t>(212000K2.01) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS motor-generator sets</t>
+  </si>
+  <si>
+    <t>(218000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(400000K3.12) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(263000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(259002A2.09) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) FWCI system failure alarm</t>
+  </si>
+  <si>
+    <t>(262001K4.01) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Lockouts</t>
+  </si>
+  <si>
+    <t>(205000K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Plant pneumatic systems</t>
+  </si>
+  <si>
+    <t>(215003A3.03) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) SCRAM signals</t>
+  </si>
+  <si>
+    <t>(215005K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) OPRM operation</t>
+  </si>
+  <si>
+    <t>(209001A4.05) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Manual initiation controls</t>
+  </si>
+  <si>
+    <t>(217000K2.03) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) RCIC flow controller</t>
+  </si>
+  <si>
+    <t>(203000A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(209002K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Standby liquid control system</t>
+  </si>
+  <si>
+    <t>(211000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Redundant reactivity control system</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291002K1.02) SENSORS AND DETECTORS (CFR: 41.7) (FLOW) Temperature/density compensation requirements</t>
+  </si>
+  <si>
+    <t>(264000A2.12) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(510000K4.05) Knowledge of (SF4 SWS*) SERVICE WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Alternate intake pathway</t>
+  </si>
+  <si>
+    <t>(215004K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) Detectors</t>
+  </si>
+  <si>
+    <t>(262002A3.01) Ability to monitor automatic operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.7 / 45.7) Transfer of power sources</t>
+  </si>
+  <si>
+    <t>(261000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Secondary containment pressure changes</t>
+  </si>
+  <si>
+    <t>(300000A4.03) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Manual isolations</t>
+  </si>
+  <si>
+    <t>(212000K2.03) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS alternate power supplies</t>
+  </si>
+  <si>
+    <t>(218000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(400000K3.18) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Reactor feedwater system</t>
+  </si>
+  <si>
+    <t>(239003A3.04) Ability to monitor automatic operation of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) including: (CFR: 41.7 / 45.7) MSIV leakage flows</t>
+  </si>
+  <si>
+    <t>(510001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Flood detection/prevention</t>
+  </si>
+  <si>
+    <t>(272000A4.04) Ability to manually operate and/or monitor the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(202001K2.02) (SF1, SF4 RS) RECIRCULATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) MG sets</t>
+  </si>
+  <si>
+    <t>(271000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.5 / 45.3 / 45.5) Preheater discharge temperature</t>
+  </si>
+  <si>
+    <t>(234000K3.03) Knowledge of the effect that a loss or malfunction of the (SF8 FH) FUEL HANDLING will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel handling operations</t>
+  </si>
+  <si>
+    <t>(259001K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 FWS) FEEDWATER SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Instrument air systems</t>
+  </si>
+  <si>
+    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(268000A2.01) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) System rupture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(201005K4.11) Knowledge of (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) design features and/or interlocks that provide for the following: (CFR: 41.5 to 41.7) Rod pattern controller </t>
+  </si>
+  <si>
+    <t>(223001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES: (CFR: 41.7 / 45.7) Suppression pool makeup</t>
+  </si>
+  <si>
+    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292008K1.14) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (HEATUP OPERATION) Describe three parameters to be monitored and controlled during heatup</t>
-  </si>
-  <si>
-    <t>(292004K1.02) REACTIVITY COEFFICIENTS (CFR: 41.1) Describe the effect on the magnitude of the temperature coefficient of reactivity from changes in moderator temperature and core age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
-  </si>
-  <si>
-    <t>(293007K1.12) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Define percent reactor power</t>
-  </si>
-  <si>
-    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
-  </si>
-  <si>
-    <t>(293009K1.22) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the effects of subcooling on critical power</t>
-  </si>
-  <si>
-    <t>(295005AA2.06) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Feedwater temperature</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295006AA2.05) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Whether a reactor SCRAM has occurred</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295016AA2.04) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295024EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber air-space temperature</t>
-  </si>
-  <si>
-    <t>(295020AA2.11) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) RPS status</t>
-  </si>
-  <si>
-    <t>(295012) (APE 12) HIGH DRYWELL TEMPERATURE (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295009AA2.02) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feed flow mismatch</t>
-  </si>
-  <si>
-    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
-  </si>
-  <si>
-    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(262002A2.05) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of UPS</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(400000A2.04) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Radiation monitoring system alarm</t>
-  </si>
-  <si>
-    <t>(271000) (SF9 OG) OFFGAS SYSTEM (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(259001A2.05) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of Instrument air system</t>
-  </si>
-  <si>
-    <t>(202001) (SF1, SF4 RS) RECIRCULATION SYSTEM (G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
+  </si>
+  <si>
+    <t>(292005K1.04) CONTROL RODS (CFR: 41.1) Predict direction of change in reactor power for a change in control rod position</t>
+  </si>
+  <si>
+    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
+  </si>
+  <si>
+    <t>(293006K1.09) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Discuss relationship between pump speed, head, flow, and power without using formulas or calculations</t>
+  </si>
+  <si>
+    <t>(293008K1.17) THERMAL HYDRAULICS (CFR: 41.14) (TWO-PHASE FLOW) Describe onset of transition boiling point along a hypothetical fuel channel, experiencing two phase flow</t>
+  </si>
+  <si>
+    <t>(293003K1.09) STEAM (CFR: 41.14) Define the following term: Saturated vapor</t>
+  </si>
+  <si>
+    <t>(295016AA2.08) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Successful transfer</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295018AA2.05) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System pressure</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(700000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of offsite circuit</t>
+  </si>
+  <si>
+    <t>(295013AA2.02) Ability to determine and/or interpret the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.10 / 43.5 / 45.13) Localized heating/stratification</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295029EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(263000A2.01) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Grounds/faults</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(259002A2.08) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Receipt of an ECCS initiation signal: FWCI</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(205000A2.05) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) System isolation</t>
+  </si>
+  <si>
+    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(230000A2.16) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of, or inadequate, heat exchanger cooling flow </t>
+  </si>
+  <si>
+    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>K6</t>
@@ -358,12 +364,6 @@
     <t>K5</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,88 +385,124 @@
     <t>T</t>
   </si>
   <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295016</t>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295030</t>
   </si>
   <si>
     <t>295019</t>
   </si>
   <si>
-    <t>295024</t>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295031</t>
   </si>
   <si>
     <t>295023</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
     <t>295001</t>
   </si>
   <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
     <t>295014</t>
   </si>
   <si>
-    <t>295022</t>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295009</t>
   </si>
   <si>
     <t>295033</t>
   </si>
   <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
     <t>217000</t>
   </si>
   <si>
-    <t>259002</t>
+    <t>203000</t>
   </si>
   <si>
     <t>209002</t>
@@ -475,7 +511,13 @@
     <t>211000</t>
   </si>
   <si>
-    <t>300000</t>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>510000</t>
   </si>
   <si>
     <t>215004</t>
@@ -484,118 +526,76 @@
     <t>262002</t>
   </si>
   <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
     <t>261000</t>
   </si>
   <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>205000</t>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>201005</t>
   </si>
   <si>
     <t>223001</t>
   </si>
   <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
     <t>233000</t>
   </si>
   <si>
     <t>230000</t>
   </si>
   <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>202001</t>
+    <t>288000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D30" t="s">
         <v>106</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1531,7 +1531,7 @@
         <v>3.3</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D37" t="s">
         <v>114</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1735,7 +1735,7 @@
         <v>2.9</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D48" t="s">
         <v>114</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1803,7 +1803,7 @@
         <v>3.2</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="D52" t="s">
         <v>106</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D54" t="s">
         <v>114</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D86" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2449,7 +2449,7 @@
         <v>4.3</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
